--- a/data/trans_orig/P2C_R1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R1-Provincia-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5994</v>
+        <v>6186</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01204028969276151</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04079322197824106</v>
+        <v>0.04210475645795203</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5423</v>
+        <v>5376</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005652076230381812</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01732658820478544</v>
+        <v>0.01717552582252371</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         <v>145158</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>140933</v>
+        <v>140741</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>146927</v>
@@ -816,7 +816,7 @@
         <v>0.9879597103072385</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9592067780217609</v>
+        <v>0.9578952435420491</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>311222</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>307568</v>
+        <v>307615</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>312991</v>
@@ -850,7 +850,7 @@
         <v>0.9943479237696182</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9826734117952145</v>
+        <v>0.9828244741774763</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -958,19 +958,19 @@
         <v>4875</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1197</v>
+        <v>1726</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12609</v>
+        <v>12887</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01376252080468161</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00338004827582792</v>
+        <v>0.00487175830889747</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03559576250489381</v>
+        <v>0.03637883939833225</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -979,19 +979,19 @@
         <v>4875</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12329</v>
+        <v>13342</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007615135569574272</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001855033772391218</v>
+        <v>0.001854246274668349</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01925861231507569</v>
+        <v>0.02084046197158667</v>
       </c>
     </row>
     <row r="8">
@@ -1021,19 +1021,19 @@
         <v>349360</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>341626</v>
+        <v>341348</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>353038</v>
+        <v>352509</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9862374791953183</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9644042374951058</v>
+        <v>0.9636211606016677</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9966199517241721</v>
+        <v>0.9951282416911025</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>616</v>
@@ -1042,19 +1042,19 @@
         <v>635319</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>627865</v>
+        <v>626852</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>639006</v>
+        <v>639007</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9923848644304257</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9807413876849241</v>
+        <v>0.9791595380284134</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9981449662276088</v>
+        <v>0.9981457537253317</v>
       </c>
     </row>
     <row r="9">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7089</v>
+        <v>7584</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009445258712031638</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03136761239349928</v>
+        <v>0.03355719193996833</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6579</v>
+        <v>7549</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005129380092776215</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01580944273944539</v>
+        <v>0.01813899184138496</v>
       </c>
     </row>
     <row r="11">
@@ -1222,7 +1222,7 @@
         <v>223874</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>218920</v>
+        <v>218425</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>226009</v>
@@ -1231,7 +1231,7 @@
         <v>0.9905547412879684</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9686323876065006</v>
+        <v>0.9664428080600317</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1243,7 +1243,7 @@
         <v>414038</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>409594</v>
+        <v>408624</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>416173</v>
@@ -1252,7 +1252,7 @@
         <v>0.9948706199072238</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9841905572605547</v>
+        <v>0.9818610081586151</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5446</v>
+        <v>5844</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005237372648446429</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02735075297665077</v>
+        <v>0.02934826082094776</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5937</v>
+        <v>5829</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.002346817275518904</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01336086559559793</v>
+        <v>0.01311780097289789</v>
       </c>
     </row>
     <row r="14">
@@ -1410,7 +1410,7 @@
         <v>198066</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>193663</v>
+        <v>193265</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>199109</v>
@@ -1419,7 +1419,7 @@
         <v>0.9947626273515535</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9726492470233489</v>
+        <v>0.9706517391790518</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1444,7 +1444,7 @@
         <v>443307</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>438413</v>
+        <v>438521</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>444350</v>
@@ -1453,7 +1453,7 @@
         <v>0.9976531827244811</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.986639134404403</v>
+        <v>0.9868821990271023</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1548,19 +1548,19 @@
         <v>3369</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9345</v>
+        <v>10979</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0311724053789897</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0079088600109642</v>
+        <v>0.007932188955248687</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0864589091091805</v>
+        <v>0.1015775893146492</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7385</v>
+        <v>8491</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01624549039324479</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04933682587814227</v>
+        <v>0.05672567519826787</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1590,19 +1590,19 @@
         <v>5801</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2059</v>
+        <v>2075</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13062</v>
+        <v>13323</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02250445577430852</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007986921154665046</v>
+        <v>0.008048715523876563</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05067235089071625</v>
+        <v>0.05168305027654704</v>
       </c>
     </row>
     <row r="17">
@@ -1619,19 +1619,19 @@
         <v>104720</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>98744</v>
+        <v>97110</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>107234</v>
+        <v>107232</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9688275946210103</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9135410908908196</v>
+        <v>0.8984224106853508</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9920911399890359</v>
+        <v>0.9920678110447514</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>140</v>
@@ -1640,7 +1640,7 @@
         <v>147259</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>142306</v>
+        <v>141200</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>149691</v>
@@ -1649,7 +1649,7 @@
         <v>0.9837545096067553</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9506631741218577</v>
+        <v>0.9432743248017319</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1661,19 +1661,19 @@
         <v>251979</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>244718</v>
+        <v>244457</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>255721</v>
+        <v>255705</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9774955442256915</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.949327649109283</v>
+        <v>0.948316949723453</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.992013078845335</v>
+        <v>0.9919512844761235</v>
       </c>
     </row>
     <row r="18">
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7708</v>
+        <v>7670</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01277633380662561</v>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04318447137679813</v>
+        <v>0.04297221099159122</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9184</v>
+        <v>7659</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.006690187649087878</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02694385262577292</v>
+        <v>0.02247181187532669</v>
       </c>
     </row>
     <row r="20">
@@ -1841,7 +1841,7 @@
         <v>176199</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>170771</v>
+        <v>170809</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>178479</v>
@@ -1850,7 +1850,7 @@
         <v>0.9872236661933744</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9568155286232013</v>
+        <v>0.9570277890084089</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1862,7 +1862,7 @@
         <v>338563</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>331659</v>
+        <v>333184</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>340843</v>
@@ -1871,7 +1871,7 @@
         <v>0.9933098123509121</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9730561473742252</v>
+        <v>0.9775281881246746</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4447</v>
+        <v>4117</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002336751643822884</v>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01265240129498436</v>
+        <v>0.01171298410797738</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5332</v>
+        <v>5385</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.002243998082253884</v>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01203750210242598</v>
+        <v>0.01215759824806573</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5999</v>
+        <v>5606</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002285037901564847</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.007551254962927674</v>
+        <v>0.007055903230384088</v>
       </c>
     </row>
     <row r="23">
@@ -2037,7 +2037,7 @@
         <v>350690</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>347064</v>
+        <v>347394</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>351511</v>
@@ -2046,7 +2046,7 @@
         <v>0.9976632483561771</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9873475987050154</v>
+        <v>0.9882870158920227</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>441940</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>437602</v>
+        <v>437549</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>442934</v>
@@ -2067,7 +2067,7 @@
         <v>0.9977560019177462</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9879624978975738</v>
+        <v>0.9878424017519341</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -2079,7 +2079,7 @@
         <v>792630</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>788446</v>
+        <v>788839</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>794445</v>
@@ -2088,7 +2088,7 @@
         <v>0.9977149620984351</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9924487450370723</v>
+        <v>0.9929440967696159</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -2183,19 +2183,19 @@
         <v>4053</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11112</v>
+        <v>11957</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.008696084264842871</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002190900803020815</v>
+        <v>0.002192920137003073</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02384004152248788</v>
+        <v>0.02565237549530068</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -2204,19 +2204,19 @@
         <v>5009</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12339</v>
+        <v>12737</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.009298378782936434</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002152040405945427</v>
+        <v>0.002145157796103418</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02290545091058928</v>
+        <v>0.02364341446022849</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -2225,19 +2225,19 @@
         <v>9062</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3825</v>
+        <v>3830</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18531</v>
+        <v>18881</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.009018992832477826</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003806402319776803</v>
+        <v>0.003811934116576257</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01844202554568051</v>
+        <v>0.01879020701468842</v>
       </c>
     </row>
     <row r="26">
@@ -2254,19 +2254,19 @@
         <v>462049</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>454990</v>
+        <v>454145</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>465081</v>
+        <v>465080</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9913039157351571</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9761599584775121</v>
+        <v>0.9743476245046993</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9978090991969791</v>
+        <v>0.9978070798629969</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>505</v>
@@ -2275,19 +2275,19 @@
         <v>533703</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>526373</v>
+        <v>525975</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>537553</v>
+        <v>537556</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9907016212170635</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.977094549089411</v>
+        <v>0.9763565855397714</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9978479595940546</v>
+        <v>0.9978548422038966</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>963</v>
@@ -2296,19 +2296,19 @@
         <v>995752</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>986283</v>
+        <v>985933</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1000989</v>
+        <v>1000984</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9909810071675221</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9815579744543196</v>
+        <v>0.9812097929853113</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9961935976802232</v>
+        <v>0.9961880658834237</v>
       </c>
     </row>
     <row r="27">
@@ -2400,19 +2400,19 @@
         <v>11056</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5169</v>
+        <v>5506</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>20045</v>
+        <v>20943</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.005787746679611067</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002705986570047548</v>
+        <v>0.002882295472978949</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01049363282593224</v>
+        <v>0.01096341272816494</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -2421,19 +2421,19 @@
         <v>17725</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9919</v>
+        <v>10239</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>28905</v>
+        <v>29364</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.007701984857692248</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004310028726951489</v>
+        <v>0.004449152878521468</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01256009788601419</v>
+        <v>0.01275948252097032</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>25</v>
@@ -2442,19 +2442,19 @@
         <v>28781</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>19192</v>
+        <v>19405</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>42459</v>
+        <v>42513</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.006833754870650357</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004556869694593435</v>
+        <v>0.004607525325048698</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01008152575337148</v>
+        <v>0.01009423674736567</v>
       </c>
     </row>
     <row r="29">
@@ -2471,19 +2471,19 @@
         <v>1899170</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1890181</v>
+        <v>1889283</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1905057</v>
+        <v>1904720</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.994212253320389</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9895063671740678</v>
+        <v>0.9890365872718346</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9972940134299524</v>
+        <v>0.9971177045270209</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2220</v>
@@ -2492,19 +2492,19 @@
         <v>2283637</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2272457</v>
+        <v>2271998</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2291443</v>
+        <v>2291123</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9922980151423078</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9874399021139859</v>
+        <v>0.9872405174790297</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9956899712730487</v>
+        <v>0.9955508471214786</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4095</v>
@@ -2513,19 +2513,19 @@
         <v>4182807</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4169129</v>
+        <v>4169075</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4192396</v>
+        <v>4192183</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9931662451293496</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9899184742466285</v>
+        <v>0.9899057632526346</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9954431303054065</v>
+        <v>0.9953924746749514</v>
       </c>
     </row>
     <row r="30">
@@ -2861,19 +2861,19 @@
         <v>3775</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>944</v>
+        <v>974</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9280</v>
+        <v>9554</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02124198404471908</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0053117079694514</v>
+        <v>0.00548076933602857</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05221310098863088</v>
+        <v>0.05375928353483311</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2882,19 +2882,19 @@
         <v>10522</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4806</v>
+        <v>5002</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19787</v>
+        <v>19742</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05041920522576854</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02302853762315452</v>
+        <v>0.02396749978545891</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09481862583501079</v>
+        <v>0.09460100400873352</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -2903,19 +2903,19 @@
         <v>14297</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7693</v>
+        <v>7296</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24841</v>
+        <v>24657</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03699942443926236</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01990935216923326</v>
+        <v>0.01888084586148989</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06428726091175664</v>
+        <v>0.06381175038759773</v>
       </c>
     </row>
     <row r="5">
@@ -2932,19 +2932,19 @@
         <v>173949</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>168444</v>
+        <v>168170</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>176780</v>
+        <v>176750</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9787580159552809</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9477868990113691</v>
+        <v>0.9462407164651668</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9946882920305486</v>
+        <v>0.9945192306639714</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>181</v>
@@ -2953,19 +2953,19 @@
         <v>198161</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>188896</v>
+        <v>188941</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>203877</v>
+        <v>203681</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9495807947742314</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9051813741649892</v>
+        <v>0.9053989959912665</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9769714623768454</v>
+        <v>0.9760325002145411</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>346</v>
@@ -2974,19 +2974,19 @@
         <v>372111</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>361567</v>
+        <v>361751</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>378715</v>
+        <v>379112</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9630005755607376</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9357127390882438</v>
+        <v>0.936188249612402</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9800906478307668</v>
+        <v>0.9811191541385097</v>
       </c>
     </row>
     <row r="6">
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4769</v>
+        <v>5188</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002988800736147994</v>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01505226956698991</v>
+        <v>0.01637598810493062</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7117</v>
+        <v>6998</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005981700449098167</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0198569710886031</v>
+        <v>0.01952521620123852</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -3123,16 +3123,16 @@
         <v>948</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9682</v>
+        <v>8479</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004577419525045315</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001403815127339099</v>
+        <v>0.001404225470552879</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0143389305196129</v>
+        <v>0.01255695694027755</v>
       </c>
     </row>
     <row r="8">
@@ -3149,7 +3149,7 @@
         <v>315875</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>312053</v>
+        <v>311634</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>316822</v>
@@ -3158,7 +3158,7 @@
         <v>0.997011199263852</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.98494773043301</v>
+        <v>0.9836240118950683</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -3170,7 +3170,7 @@
         <v>356267</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>351294</v>
+        <v>351413</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>358411</v>
@@ -3179,7 +3179,7 @@
         <v>0.9940182995509018</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9801430289113969</v>
+        <v>0.9804747837987617</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -3191,7 +3191,7 @@
         <v>672141</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>665550</v>
+        <v>666753</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>674284</v>
@@ -3200,10 +3200,10 @@
         <v>0.9954225804749547</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.98566106948039</v>
+        <v>0.9874430430597217</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9985961848726609</v>
+        <v>0.9985957745294471</v>
       </c>
     </row>
     <row r="9">
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8863</v>
+        <v>8107</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01052252545007585</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03699214296368707</v>
+        <v>0.03383473284386526</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8559</v>
+        <v>8668</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005668221572058631</v>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01924342542353981</v>
+        <v>0.01948797909280877</v>
       </c>
     </row>
     <row r="11">
@@ -3371,7 +3371,7 @@
         <v>237078</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>230736</v>
+        <v>231492</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>239599</v>
@@ -3380,7 +3380,7 @@
         <v>0.9894774745499242</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.963007857036313</v>
+        <v>0.9661652671561347</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3392,7 +3392,7 @@
         <v>442273</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>436235</v>
+        <v>436126</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>444794</v>
@@ -3401,7 +3401,7 @@
         <v>0.9943317784279414</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9807565745764603</v>
+        <v>0.9805120209071913</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -3509,19 +3509,19 @@
         <v>4949</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1103</v>
+        <v>1841</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11257</v>
+        <v>10651</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01691012011990713</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003770295561342183</v>
+        <v>0.006290791733724634</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03846466253260802</v>
+        <v>0.03639279918070824</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -3530,19 +3530,19 @@
         <v>4949</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1808</v>
+        <v>1864</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10728</v>
+        <v>11765</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009225866056570727</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003369692936025706</v>
+        <v>0.003475414944945398</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01999842565782653</v>
+        <v>0.02193245639409166</v>
       </c>
     </row>
     <row r="14">
@@ -3572,19 +3572,19 @@
         <v>287722</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>281414</v>
+        <v>282020</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>291568</v>
+        <v>290830</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9830898798800929</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9615353374673923</v>
+        <v>0.9636072008192929</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9962297044386578</v>
+        <v>0.9937092082662754</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>494</v>
@@ -3593,19 +3593,19 @@
         <v>531488</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>525709</v>
+        <v>524672</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>534629</v>
+        <v>534573</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9907741339434293</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9800015743421734</v>
+        <v>0.9780675436059082</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9966303070639744</v>
+        <v>0.9965245850550546</v>
       </c>
     </row>
     <row r="15">
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12901</v>
+        <v>10019</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02140252901768055</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08893719504291699</v>
+        <v>0.06906659022163444</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11156</v>
+        <v>11472</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00996364475987105</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03580247778426205</v>
+        <v>0.03681697848772791</v>
       </c>
     </row>
     <row r="17">
@@ -3760,7 +3760,7 @@
         <v>141957</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>132161</v>
+        <v>135043</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>145062</v>
@@ -3769,7 +3769,7 @@
         <v>0.9785974709823194</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9110628049570799</v>
+        <v>0.9309334097783656</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3794,7 +3794,7 @@
         <v>308498</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>300447</v>
+        <v>300131</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>311603</v>
@@ -3803,7 +3803,7 @@
         <v>0.9900363552401289</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.964197522215738</v>
+        <v>0.963183021512272</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6844</v>
+        <v>5870</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01089846593662873</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03889379905414778</v>
+        <v>0.03336095157743722</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6729</v>
+        <v>6778</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.005042343902416855</v>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01769369976204073</v>
+        <v>0.0178209458309007</v>
       </c>
     </row>
     <row r="20">
@@ -3961,7 +3961,7 @@
         <v>174040</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>169114</v>
+        <v>170088</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>175958</v>
@@ -3970,7 +3970,7 @@
         <v>0.9891015340633713</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9611062009458521</v>
+        <v>0.9666390484225625</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3995,7 +3995,7 @@
         <v>378396</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>373585</v>
+        <v>373536</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>380314</v>
@@ -4004,7 +4004,7 @@
         <v>0.9949576560975831</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9823063002379593</v>
+        <v>0.9821790541690993</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -4099,19 +4099,19 @@
         <v>5082</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1017</v>
+        <v>1971</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12560</v>
+        <v>13088</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01280297563919282</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002561272540579312</v>
+        <v>0.004966061292660742</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0316414257056455</v>
+        <v>0.0329714062946149</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -4120,19 +4120,19 @@
         <v>6254</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2125</v>
+        <v>2931</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13357</v>
+        <v>12968</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01369715610800753</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004652925577882929</v>
+        <v>0.00641958645964346</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02925246081356518</v>
+        <v>0.02839962702835594</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -4144,16 +4144,16 @@
         <v>5395</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>20914</v>
+        <v>20706</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0132813223758336</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006321200935361489</v>
+        <v>0.006320640859859718</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02450219547311067</v>
+        <v>0.02425915145272748</v>
       </c>
     </row>
     <row r="23">
@@ -4170,19 +4170,19 @@
         <v>391856</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>384378</v>
+        <v>383850</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>395921</v>
+        <v>394967</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9871970243608071</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9683585742943548</v>
+        <v>0.967028593705385</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9974387274594206</v>
+        <v>0.9950339387073392</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>418</v>
@@ -4191,19 +4191,19 @@
         <v>450357</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>443254</v>
+        <v>443643</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>454486</v>
+        <v>453680</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9863028438919925</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.970747539186435</v>
+        <v>0.9716003729716441</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9953470744221171</v>
+        <v>0.9935804135403565</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>781</v>
@@ -4212,7 +4212,7 @@
         <v>842213</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>832635</v>
+        <v>832843</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>848154</v>
@@ -4221,10 +4221,10 @@
         <v>0.9867186776241664</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9754978045268894</v>
+        <v>0.9757408485472725</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9936787990646386</v>
+        <v>0.9936793591401403</v>
       </c>
     </row>
     <row r="24">
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7042</v>
+        <v>6418</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003938183079216624</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01479857281312227</v>
+        <v>0.01348779644109292</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7449</v>
+        <v>7069</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.003778690761225105</v>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01262552203159971</v>
+        <v>0.01198156437570083</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -4358,19 +4358,19 @@
         <v>4103</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>9511</v>
+        <v>10374</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.00384989986593715</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0008816102910810645</v>
+        <v>0.0008878142148696636</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.008923597265167124</v>
+        <v>0.009733103138096407</v>
       </c>
     </row>
     <row r="26">
@@ -4387,7 +4387,7 @@
         <v>473986</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>468818</v>
+        <v>469442</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>475860</v>
@@ -4396,7 +4396,7 @@
         <v>0.9960618169207833</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9852014271868786</v>
+        <v>0.9865122035589078</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -4408,7 +4408,7 @@
         <v>587731</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>582511</v>
+        <v>582891</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>589960</v>
@@ -4417,7 +4417,7 @@
         <v>0.9962213092387749</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9873744779683999</v>
+        <v>0.9880184356242997</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -4429,19 +4429,19 @@
         <v>1061717</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1056309</v>
+        <v>1055446</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1064880</v>
+        <v>1064874</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9961501001340628</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9910764027348329</v>
+        <v>0.9902668968619036</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9991183897089189</v>
+        <v>0.9991121857851304</v>
       </c>
     </row>
     <row r="27">
@@ -4533,19 +4533,19 @@
         <v>16701</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9629</v>
+        <v>9436</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>28110</v>
+        <v>28510</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007813746960170263</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004505239760208592</v>
+        <v>0.004415000304714328</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01315199217844607</v>
+        <v>0.01333917488657215</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>25</v>
@@ -4554,19 +4554,19 @@
         <v>28619</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>19750</v>
+        <v>19241</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>42842</v>
+        <v>42159</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01137119555838447</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007847054920639789</v>
+        <v>0.007644978330669619</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0170221942576053</v>
+        <v>0.01675089250980118</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>40</v>
@@ -4575,19 +4575,19 @@
         <v>45320</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>31955</v>
+        <v>32400</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>61779</v>
+        <v>61200</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.009737509994737164</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00686581683101294</v>
+        <v>0.006961567379129131</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01327400847965503</v>
+        <v>0.01314953955671335</v>
       </c>
     </row>
     <row r="29">
@@ -4604,19 +4604,19 @@
         <v>2120625</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2109216</v>
+        <v>2108816</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2127697</v>
+        <v>2127890</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9921862530398298</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9868480078215537</v>
+        <v>0.9866608251134279</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9954947602397914</v>
+        <v>0.9955849996952858</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2318</v>
@@ -4625,19 +4625,19 @@
         <v>2488211</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2473988</v>
+        <v>2474671</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2497080</v>
+        <v>2497589</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9886288044416155</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9829778057423931</v>
+        <v>0.983249107490199</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9921529450793599</v>
+        <v>0.9923550216693304</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4297</v>
@@ -4646,19 +4646,19 @@
         <v>4608836</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4592377</v>
+        <v>4592956</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4622201</v>
+        <v>4621756</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9902624900052628</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9867259915203449</v>
+        <v>0.9868504604432862</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9931341831689871</v>
+        <v>0.9930384326208708</v>
       </c>
     </row>
     <row r="30">
@@ -4997,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6213</v>
+        <v>5715</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005973915069905049</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03581986989071648</v>
+        <v>0.03294875775258202</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -5015,19 +5015,19 @@
         <v>2907</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8781</v>
+        <v>7817</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01451583886161292</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004652209603577396</v>
+        <v>0.004669373139009302</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04384949171856</v>
+        <v>0.03903791594479676</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -5036,19 +5036,19 @@
         <v>3943</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9636</v>
+        <v>9903</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01055104411482015</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002710180109597125</v>
+        <v>0.002725594511881738</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02578410426112828</v>
+        <v>0.02649868652682362</v>
       </c>
     </row>
     <row r="5">
@@ -5065,7 +5065,7 @@
         <v>172425</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>167248</v>
+        <v>167746</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>173461</v>
@@ -5074,7 +5074,7 @@
         <v>0.9940260849300949</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9641801301092836</v>
+        <v>0.9670512422474178</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -5086,19 +5086,19 @@
         <v>197344</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>191470</v>
+        <v>192434</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>199319</v>
+        <v>199316</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9854841611383871</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9561505082814401</v>
+        <v>0.9609620840552033</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9953477903964226</v>
+        <v>0.9953306268609907</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>346</v>
@@ -5107,19 +5107,19 @@
         <v>369769</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>364076</v>
+        <v>363809</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>372699</v>
+        <v>372693</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9894489558851799</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9742158957388719</v>
+        <v>0.9735013134731764</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9972898198904029</v>
+        <v>0.9972744054881182</v>
       </c>
     </row>
     <row r="6">
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6849</v>
+        <v>6457</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008008820933748328</v>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02611929924570248</v>
+        <v>0.02462293909619423</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8340</v>
+        <v>7544</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00723434259297393</v>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0258752879123681</v>
+        <v>0.02340371543934291</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -5253,19 +5253,19 @@
         <v>4432</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1345</v>
+        <v>1020</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10673</v>
+        <v>12182</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007581767383670997</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002300228711422446</v>
+        <v>0.001745318688293897</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0182583554268614</v>
+        <v>0.02084060421830201</v>
       </c>
     </row>
     <row r="8">
@@ -5282,7 +5282,7 @@
         <v>260121</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>255372</v>
+        <v>255764</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>262221</v>
@@ -5291,7 +5291,7 @@
         <v>0.9919911790662517</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9738807007542997</v>
+        <v>0.975377060903806</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -5303,7 +5303,7 @@
         <v>319989</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>313981</v>
+        <v>314777</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>322321</v>
@@ -5312,7 +5312,7 @@
         <v>0.992765657407026</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9741247120876318</v>
+        <v>0.9765962845606568</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -5324,19 +5324,19 @@
         <v>580110</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>573869</v>
+        <v>572360</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>583197</v>
+        <v>583522</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.992418232616329</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9817416445731382</v>
+        <v>0.9791593957816982</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9976997712885776</v>
+        <v>0.998254681311706</v>
       </c>
     </row>
     <row r="9">
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5049</v>
+        <v>5004</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005607818655788653</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02842270594058941</v>
+        <v>0.02816620395336687</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6188</v>
+        <v>6968</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00883362909898648</v>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0291693739550008</v>
+        <v>0.03284577867924639</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -5470,19 +5470,19 @@
         <v>2870</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7723</v>
+        <v>8520</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007363502375144915</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002305278668460684</v>
+        <v>0.002298257044775815</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01981321121575742</v>
+        <v>0.02185795990177031</v>
       </c>
     </row>
     <row r="11">
@@ -5499,7 +5499,7 @@
         <v>176653</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>172600</v>
+        <v>172645</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>177649</v>
@@ -5508,7 +5508,7 @@
         <v>0.9943921813442114</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9715772940594105</v>
+        <v>0.971833796046633</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5520,7 +5520,7 @@
         <v>210282</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>205968</v>
+        <v>205188</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>212156</v>
@@ -5529,7 +5529,7 @@
         <v>0.9911663709010136</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9708306260449995</v>
+        <v>0.9671542213207541</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -5541,19 +5541,19 @@
         <v>386935</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>382082</v>
+        <v>381285</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>388906</v>
+        <v>388909</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9926364976248551</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9801867887842425</v>
+        <v>0.9781420400982296</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9976947213315394</v>
+        <v>0.9977017429552242</v>
       </c>
     </row>
     <row r="12">
@@ -5658,19 +5658,19 @@
         <v>2863</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8747</v>
+        <v>7785</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01119941887086241</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003444859514792178</v>
+        <v>0.003456361410169172</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0342126817788032</v>
+        <v>0.03044909876900667</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -5679,19 +5679,19 @@
         <v>2863</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7386</v>
+        <v>7659</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006402917397139071</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001953682159144632</v>
+        <v>0.001961696189032243</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01651630365144112</v>
+        <v>0.01712667828922579</v>
       </c>
     </row>
     <row r="14">
@@ -5721,19 +5721,19 @@
         <v>252794</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>246910</v>
+        <v>247872</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>254776</v>
+        <v>254773</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9888005811291376</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9657873182211963</v>
+        <v>0.9695509012309933</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9965551404852078</v>
+        <v>0.9965436385898309</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>419</v>
@@ -5742,19 +5742,19 @@
         <v>444310</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>439787</v>
+        <v>439514</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>446299</v>
+        <v>446296</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9935970826028609</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9834836963485588</v>
+        <v>0.9828733217107741</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9980463178408554</v>
+        <v>0.9980383038109677</v>
       </c>
     </row>
     <row r="15">
@@ -5846,19 +5846,19 @@
         <v>4519</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12151</v>
+        <v>11615</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03377037426871456</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007629571987756733</v>
+        <v>0.007552683921306892</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09081199016794837</v>
+        <v>0.08681061408336681</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -5880,19 +5880,19 @@
         <v>4519</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11791</v>
+        <v>10981</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01617694116510006</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003594174776825451</v>
+        <v>0.003602564036022755</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04221349860633766</v>
+        <v>0.03931296994171508</v>
       </c>
     </row>
     <row r="17">
@@ -5909,19 +5909,19 @@
         <v>129283</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>121651</v>
+        <v>122187</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>132781</v>
+        <v>132791</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9662296257312855</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9091880098320517</v>
+        <v>0.9131893859166337</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9923704280122432</v>
+        <v>0.9924473160786932</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>147</v>
@@ -5943,19 +5943,19 @@
         <v>274801</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>267529</v>
+        <v>268339</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>278316</v>
+        <v>278314</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9838230588349</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9577865013936619</v>
+        <v>0.960687030058285</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9964058252231746</v>
+        <v>0.9963974359639772</v>
       </c>
     </row>
     <row r="18">
@@ -6047,19 +6047,19 @@
         <v>2858</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7629</v>
+        <v>7969</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01772732039393515</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004954279088163171</v>
+        <v>0.005028815815266317</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0473185017048003</v>
+        <v>0.04943132326950877</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6276</v>
+        <v>6308</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00733423229462466</v>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03655127733100347</v>
+        <v>0.03673285257229186</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -6089,19 +6089,19 @@
         <v>4117</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>952</v>
+        <v>1109</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9993</v>
+        <v>10667</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01236695194591889</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002858252173023767</v>
+        <v>0.003331573600595158</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0300152171499904</v>
+        <v>0.03203797417268594</v>
       </c>
     </row>
     <row r="20">
@@ -6118,19 +6118,19 @@
         <v>158363</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>153592</v>
+        <v>153252</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>160422</v>
+        <v>160410</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9822726796060649</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9526814982952002</v>
+        <v>0.9505686767304913</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9950457209118369</v>
+        <v>0.9949711841847337</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>160</v>
@@ -6139,7 +6139,7 @@
         <v>170458</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>165441</v>
+        <v>165409</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>171717</v>
@@ -6148,7 +6148,7 @@
         <v>0.9926657677053753</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9634487226689966</v>
+        <v>0.963267147427708</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -6160,19 +6160,19 @@
         <v>328820</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>322944</v>
+        <v>322270</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>331985</v>
+        <v>331828</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9876330480540811</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9699847828500094</v>
+        <v>0.9679620258273141</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9971417478269763</v>
+        <v>0.9966684263994049</v>
       </c>
     </row>
     <row r="21">
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7743</v>
+        <v>7953</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006407791867242214</v>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02275348473978655</v>
+        <v>0.02337107973676587</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -6285,19 +6285,19 @@
         <v>3096</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9160</v>
+        <v>8538</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006981088106933949</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002176060915477143</v>
+        <v>0.002184848866526868</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02065466500757476</v>
+        <v>0.01925080322555621</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -6306,19 +6306,19 @@
         <v>5277</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2091</v>
+        <v>1994</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11994</v>
+        <v>11475</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.006732191416599539</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002668176540613282</v>
+        <v>0.002543942083172568</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01530287934481806</v>
+        <v>0.01464031855481644</v>
       </c>
     </row>
     <row r="23">
@@ -6335,7 +6335,7 @@
         <v>338098</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>332535</v>
+        <v>332325</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>340278</v>
@@ -6344,7 +6344,7 @@
         <v>0.9935922081327578</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9772465152602134</v>
+        <v>0.9766289202632347</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -6356,19 +6356,19 @@
         <v>440406</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>434342</v>
+        <v>434964</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>442537</v>
+        <v>442533</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.993018911893066</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9793453349924252</v>
+        <v>0.9807491967744439</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9978239390845228</v>
+        <v>0.9978151511334732</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>712</v>
@@ -6377,19 +6377,19 @@
         <v>778503</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>771786</v>
+        <v>772305</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>781689</v>
+        <v>781786</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9932678085834005</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9846971206551834</v>
+        <v>0.9853596814451833</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9973318234593868</v>
+        <v>0.9974560579168273</v>
       </c>
     </row>
     <row r="24">
@@ -6481,19 +6481,19 @@
         <v>3929</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1094</v>
+        <v>929</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9981</v>
+        <v>8925</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.008600942777156484</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002394102106965533</v>
+        <v>0.002033080339059114</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02185137609112752</v>
+        <v>0.01953844590818912</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -6502,19 +6502,19 @@
         <v>8208</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3434</v>
+        <v>3679</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16991</v>
+        <v>16868</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01405652668953373</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.005882000202678716</v>
+        <v>0.006300145912198391</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02909950152993116</v>
+        <v>0.02888824248248196</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -6523,19 +6523,19 @@
         <v>12136</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6497</v>
+        <v>6201</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>21186</v>
+        <v>19916</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01166193316076901</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006242803847016694</v>
+        <v>0.005958207879426128</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0203581400217594</v>
+        <v>0.01913760295586486</v>
       </c>
     </row>
     <row r="26">
@@ -6552,19 +6552,19 @@
         <v>452851</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>446799</v>
+        <v>447855</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>455686</v>
+        <v>455851</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9913990572228435</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9781486239088725</v>
+        <v>0.9804615540918126</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9976058978930344</v>
+        <v>0.9979669196609409</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>524</v>
@@ -6573,19 +6573,19 @@
         <v>575691</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>566908</v>
+        <v>567031</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>580465</v>
+        <v>580220</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9859434733104663</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9709004984700689</v>
+        <v>0.971111757517518</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9941179997973213</v>
+        <v>0.9936998540878016</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>965</v>
@@ -6594,19 +6594,19 @@
         <v>1028543</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1019493</v>
+        <v>1020763</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1034182</v>
+        <v>1034478</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.988338066839231</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9796418599782403</v>
+        <v>0.9808623970441348</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9937571961529831</v>
+        <v>0.9940417921205739</v>
       </c>
     </row>
     <row r="27">
@@ -6698,19 +6698,19 @@
         <v>17618</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10254</v>
+        <v>10913</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>27730</v>
+        <v>28423</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.009287789166760759</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005405364468657178</v>
+        <v>0.00575321301657449</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01461833447142761</v>
+        <v>0.01498350892035928</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>21</v>
@@ -6719,19 +6719,19 @@
         <v>22539</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>14030</v>
+        <v>14055</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>34622</v>
+        <v>34325</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.009652607351617387</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006008423819901002</v>
+        <v>0.006019305364634413</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01482713500032567</v>
+        <v>0.01470027436950417</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>38</v>
@@ -6740,19 +6740,19 @@
         <v>40157</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>29375</v>
+        <v>29162</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>55506</v>
+        <v>55380</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.009489081278261291</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006941344259526736</v>
+        <v>0.006890829571809961</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0131159812803208</v>
+        <v>0.01308625515934571</v>
       </c>
     </row>
     <row r="29">
@@ -6769,19 +6769,19 @@
         <v>1879310</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1869198</v>
+        <v>1868505</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1886674</v>
+        <v>1886015</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9907122108332392</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9853816655285723</v>
+        <v>0.985016491079641</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9945946355313429</v>
+        <v>0.9942467869834255</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2160</v>
@@ -6790,19 +6790,19 @@
         <v>2312481</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2300398</v>
+        <v>2300695</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2320990</v>
+        <v>2320965</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9903473926483826</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9851728649996739</v>
+        <v>0.9852997256304958</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9939915761800989</v>
+        <v>0.993980694635366</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3985</v>
@@ -6811,19 +6811,19 @@
         <v>4191791</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4176442</v>
+        <v>4176568</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4202573</v>
+        <v>4202786</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9905109187217387</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.986884018719679</v>
+        <v>0.9869137448406542</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9930586557404733</v>
+        <v>0.9931091704281899</v>
       </c>
     </row>
     <row r="30">
@@ -7159,19 +7159,19 @@
         <v>8163</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4437</v>
+        <v>3883</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12959</v>
+        <v>12350</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3218839161686154</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1749778989007263</v>
+        <v>0.1531228145892934</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5110169466538437</v>
+        <v>0.4870057784020501</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -7180,19 +7180,19 @@
         <v>11194</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7119</v>
+        <v>7822</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16052</v>
+        <v>16014</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.319927649779627</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2034613676940142</v>
+        <v>0.2235734769482036</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4587946620511228</v>
+        <v>0.4577107244987083</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -7201,19 +7201,19 @@
         <v>19357</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14167</v>
+        <v>13867</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26024</v>
+        <v>26023</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3207497348520969</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2347623556521959</v>
+        <v>0.2297885899398637</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.431229435691191</v>
+        <v>0.4312163226279601</v>
       </c>
     </row>
     <row r="5">
@@ -7230,19 +7230,19 @@
         <v>17197</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12401</v>
+        <v>13010</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20923</v>
+        <v>21477</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6781160838313848</v>
+        <v>0.6781160838313847</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4889830533461566</v>
+        <v>0.5129942215979499</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8250221010992738</v>
+        <v>0.8468771854107067</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>42</v>
@@ -7251,19 +7251,19 @@
         <v>23794</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18936</v>
+        <v>18974</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27869</v>
+        <v>27166</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6800723502203729</v>
+        <v>0.6800723502203732</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.541205337948877</v>
+        <v>0.5422892755012917</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7965386323059854</v>
+        <v>0.7764265230517965</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>62</v>
@@ -7272,19 +7272,19 @@
         <v>40991</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>34324</v>
+        <v>34325</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46181</v>
+        <v>46481</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.679250265147903</v>
+        <v>0.6792502651479031</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5687705643088093</v>
+        <v>0.5687836773720399</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7652376443478042</v>
+        <v>0.7702114100601364</v>
       </c>
     </row>
     <row r="6">
@@ -7376,19 +7376,19 @@
         <v>17156</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10508</v>
+        <v>10728</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25794</v>
+        <v>27741</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2233269570645993</v>
+        <v>0.2233269570645995</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1367867830211782</v>
+        <v>0.1396559710748418</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3357775426382624</v>
+        <v>0.3611251612552143</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -7397,19 +7397,19 @@
         <v>18911</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13065</v>
+        <v>13464</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25759</v>
+        <v>25737</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1516593970391898</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1047742559667352</v>
+        <v>0.1079757409165697</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2065824589130532</v>
+        <v>0.2064008408432406</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -7418,19 +7418,19 @@
         <v>36066</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26383</v>
+        <v>26769</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47753</v>
+        <v>47082</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.178980039698074</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1309253045111687</v>
+        <v>0.1328397906179339</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2369767250278215</v>
+        <v>0.2336429316789681</v>
       </c>
     </row>
     <row r="8">
@@ -7447,19 +7447,19 @@
         <v>59663</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>51025</v>
+        <v>49078</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>66311</v>
+        <v>66091</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7766730429354004</v>
+        <v>0.7766730429354008</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6642224573617379</v>
+        <v>0.6388748387447869</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8632132169788219</v>
+        <v>0.8603440289251583</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>133</v>
@@ -7468,19 +7468,19 @@
         <v>105781</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>98933</v>
+        <v>98955</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>111627</v>
+        <v>111228</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8483406029608103</v>
+        <v>0.8483406029608102</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7934175410869467</v>
+        <v>0.7935991591567594</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8952257440332646</v>
+        <v>0.8920242590834302</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>181</v>
@@ -7489,19 +7489,19 @@
         <v>165445</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>153758</v>
+        <v>154429</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>175128</v>
+        <v>174742</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.821019960301926</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7630232749721781</v>
+        <v>0.766357068321032</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8690746954888311</v>
+        <v>0.8671602093820662</v>
       </c>
     </row>
     <row r="9">
@@ -7593,19 +7593,19 @@
         <v>12786</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7855</v>
+        <v>8026</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17829</v>
+        <v>19013</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2870400807936561</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1763413125770025</v>
+        <v>0.1801905620317734</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4002514125813733</v>
+        <v>0.426834677449436</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -7614,19 +7614,19 @@
         <v>20137</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15016</v>
+        <v>14626</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26900</v>
+        <v>26176</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3375281778863581</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2516930270999188</v>
+        <v>0.2451556971153538</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4508846653714269</v>
+        <v>0.4387585644180924</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -7635,19 +7635,19 @@
         <v>32923</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26249</v>
+        <v>25547</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41386</v>
+        <v>41478</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.315945934376701</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2518986346245404</v>
+        <v>0.2451620606450775</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3971660214875074</v>
+        <v>0.3980503436305833</v>
       </c>
     </row>
     <row r="11">
@@ -7664,19 +7664,19 @@
         <v>31758</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26715</v>
+        <v>25531</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>36689</v>
+        <v>36518</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7129599192063441</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5997485874186266</v>
+        <v>0.5731653225505641</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8236586874229974</v>
+        <v>0.8198094379682267</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>62</v>
@@ -7685,19 +7685,19 @@
         <v>39523</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>32760</v>
+        <v>33484</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44644</v>
+        <v>45034</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6624718221136419</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.549115334628573</v>
+        <v>0.5612414355819074</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7483069729000809</v>
+        <v>0.7548443028846455</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>100</v>
@@ -7706,19 +7706,19 @@
         <v>71281</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>62818</v>
+        <v>62726</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>77955</v>
+        <v>78657</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.684054065623299</v>
+        <v>0.6840540656232988</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6028339785124925</v>
+        <v>0.6019496563694166</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7481013653754596</v>
+        <v>0.7548379393549226</v>
       </c>
     </row>
     <row r="12">
@@ -7810,19 +7810,19 @@
         <v>16757</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9061</v>
+        <v>9752</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27832</v>
+        <v>27954</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2292186275597478</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.123950426935916</v>
+        <v>0.1334057747254428</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3807292504439762</v>
+        <v>0.3823937726852755</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -7831,19 +7831,19 @@
         <v>14938</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10619</v>
+        <v>10591</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21073</v>
+        <v>20478</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1725614773023913</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.122664396284558</v>
+        <v>0.1223466134543049</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.243432638123694</v>
+        <v>0.2365582146134477</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -7852,19 +7852,19 @@
         <v>31695</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22498</v>
+        <v>23541</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>44905</v>
+        <v>44011</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1985013575533765</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1409005932866955</v>
+        <v>0.1474331637998144</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2812386822770437</v>
+        <v>0.2756355100977432</v>
       </c>
     </row>
     <row r="14">
@@ -7881,19 +7881,19 @@
         <v>56346</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45271</v>
+        <v>45149</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>64042</v>
+        <v>63351</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7707813724402522</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6192707495560236</v>
+        <v>0.6176062273147258</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8760495730640839</v>
+        <v>0.8665942252745572</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>98</v>
@@ -7902,19 +7902,19 @@
         <v>71629</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>65494</v>
+        <v>66089</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>75948</v>
+        <v>75976</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8274385226976088</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7565673618763056</v>
+        <v>0.7634417853865522</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8773356037154417</v>
+        <v>0.877653386545695</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>141</v>
@@ -7923,19 +7923,19 @@
         <v>127975</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>114765</v>
+        <v>115659</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>137172</v>
+        <v>136129</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8014986424466234</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7187613177229555</v>
+        <v>0.7243644899022568</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8590994067133043</v>
+        <v>0.8525668362001856</v>
       </c>
     </row>
     <row r="15">
@@ -8027,19 +8027,19 @@
         <v>3683</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1503</v>
+        <v>1454</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7574</v>
+        <v>6909</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1395140390521536</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05692635788919328</v>
+        <v>0.05508090766552975</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.286902051184327</v>
+        <v>0.2617186620014664</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -8048,19 +8048,19 @@
         <v>7793</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4953</v>
+        <v>4837</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11211</v>
+        <v>11655</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2265833289131242</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1440143846149653</v>
+        <v>0.140632098376245</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3259736750490952</v>
+        <v>0.3388764128449266</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -8069,19 +8069,19 @@
         <v>11476</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7870</v>
+        <v>7689</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16164</v>
+        <v>16458</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1887731541082176</v>
+        <v>0.1887731541082177</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1294637748942357</v>
+        <v>0.1264905561541769</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.265889856869834</v>
+        <v>0.2707363035955846</v>
       </c>
     </row>
     <row r="17">
@@ -8098,19 +8098,19 @@
         <v>22716</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18825</v>
+        <v>19490</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24896</v>
+        <v>24945</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8604859609478466</v>
+        <v>0.8604859609478465</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7130979488156729</v>
+        <v>0.7382813379985337</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9430736421108067</v>
+        <v>0.9449190923344704</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>59</v>
@@ -8119,19 +8119,19 @@
         <v>26599</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23181</v>
+        <v>22737</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29439</v>
+        <v>29555</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7734166710868758</v>
+        <v>0.773416671086876</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6740263249509049</v>
+        <v>0.6611235871550736</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8559856153850347</v>
+        <v>0.8593679016237549</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>88</v>
@@ -8140,19 +8140,19 @@
         <v>49315</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>44627</v>
+        <v>44333</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>52921</v>
+        <v>53102</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8112268458917824</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7341101431301655</v>
+        <v>0.7292636964044157</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8705362251057636</v>
+        <v>0.8735094438458233</v>
       </c>
     </row>
     <row r="18">
@@ -8244,19 +8244,19 @@
         <v>12818</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8707</v>
+        <v>8410</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17891</v>
+        <v>18110</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2159682986429403</v>
+        <v>0.2159682986429404</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1467134151946111</v>
+        <v>0.1417092248168422</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3014490358183176</v>
+        <v>0.305143745312174</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>48</v>
@@ -8265,19 +8265,19 @@
         <v>18118</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13431</v>
+        <v>13841</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23529</v>
+        <v>23867</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.249467361382408</v>
+        <v>0.2494673613824081</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1849372205915296</v>
+        <v>0.1905754997423169</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3239712482414208</v>
+        <v>0.3286238224745413</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>74</v>
@@ -8286,19 +8286,19 @@
         <v>30936</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>24216</v>
+        <v>24595</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>38578</v>
+        <v>39074</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2344028766184195</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1834846769255232</v>
+        <v>0.186361258871412</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2923122018731144</v>
+        <v>0.2960714137174157</v>
       </c>
     </row>
     <row r="20">
@@ -8315,19 +8315,19 @@
         <v>46532</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>41459</v>
+        <v>41240</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>50643</v>
+        <v>50940</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7840317013570596</v>
+        <v>0.7840317013570597</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6985509641816824</v>
+        <v>0.6948562546878262</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8532865848053889</v>
+        <v>0.8582907751831579</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>93</v>
@@ -8336,19 +8336,19 @@
         <v>54509</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>49098</v>
+        <v>48760</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>59196</v>
+        <v>58786</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7505326386175921</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6760287517585792</v>
+        <v>0.6713761775254584</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8150627794084703</v>
+        <v>0.8094245002576832</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>156</v>
@@ -8357,19 +8357,19 @@
         <v>101040</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>93398</v>
+        <v>92902</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>107760</v>
+        <v>107381</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7655971233815805</v>
+        <v>0.7655971233815806</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7076877981268858</v>
+        <v>0.7039285862825843</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8165153230744769</v>
+        <v>0.8136387411285878</v>
       </c>
     </row>
     <row r="21">
@@ -8461,19 +8461,19 @@
         <v>6478</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2661</v>
+        <v>2452</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12512</v>
+        <v>12254</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1119788763105567</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04600379457572516</v>
+        <v>0.0423799566271217</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2162987584226619</v>
+        <v>0.2118314550308469</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -8482,19 +8482,19 @@
         <v>15805</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9796</v>
+        <v>9800</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23041</v>
+        <v>23488</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1941214029600737</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1203185961776277</v>
+        <v>0.1203606258384181</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2829971132035948</v>
+        <v>0.2884873041192387</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -8503,19 +8503,19 @@
         <v>22283</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14912</v>
+        <v>14629</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33157</v>
+        <v>31815</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1600017775160571</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1070717940342455</v>
+        <v>0.1050399390909086</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2380822833754912</v>
+        <v>0.2284429749050656</v>
       </c>
     </row>
     <row r="23">
@@ -8532,19 +8532,19 @@
         <v>51369</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>45335</v>
+        <v>45593</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>55186</v>
+        <v>55395</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8880211236894434</v>
+        <v>0.8880211236894432</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7837012415773381</v>
+        <v>0.7881685449691531</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9539962054242749</v>
+        <v>0.9576200433728785</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>89</v>
@@ -8553,19 +8553,19 @@
         <v>65614</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>58378</v>
+        <v>57931</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>71623</v>
+        <v>71619</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8058785970399264</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7170028867964051</v>
+        <v>0.7115126958807597</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8796814038223723</v>
+        <v>0.8796393741615814</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>134</v>
@@ -8574,19 +8574,19 @@
         <v>116984</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>106110</v>
+        <v>107452</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>124355</v>
+        <v>124638</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.839998222483943</v>
+        <v>0.8399982224839428</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7619177166245087</v>
+        <v>0.7715570250949346</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8929282059657546</v>
+        <v>0.8949600609090912</v>
       </c>
     </row>
     <row r="24">
@@ -8678,19 +8678,19 @@
         <v>6989</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3457</v>
+        <v>3131</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12870</v>
+        <v>12947</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.03540286075391436</v>
+        <v>0.03540286075391437</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0175122203218019</v>
+        <v>0.01586300311177528</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06519706832522475</v>
+        <v>0.06558690150752207</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -8699,19 +8699,19 @@
         <v>24672</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17529</v>
+        <v>18216</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33690</v>
+        <v>33994</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08353682532008265</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05935187249194149</v>
+        <v>0.06167898939135761</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.114071714289047</v>
+        <v>0.115100838846761</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>47</v>
@@ -8720,19 +8720,19 @@
         <v>31660</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>23481</v>
+        <v>23137</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>42147</v>
+        <v>41655</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06425351914997035</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04765452887031836</v>
+        <v>0.04695459356413693</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08553463353231525</v>
+        <v>0.08453745506240547</v>
       </c>
     </row>
     <row r="26">
@@ -8749,19 +8749,19 @@
         <v>190413</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>184532</v>
+        <v>184455</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>193945</v>
+        <v>194271</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9645971392460856</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9348029316747758</v>
+        <v>0.9344130984924778</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9824877796781982</v>
+        <v>0.9841369968882246</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>333</v>
@@ -8770,19 +8770,19 @@
         <v>270670</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>261652</v>
+        <v>261348</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>277813</v>
+        <v>277126</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9164631746799173</v>
+        <v>0.9164631746799171</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8859282857109532</v>
+        <v>0.8848991611532386</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9406481275080587</v>
+        <v>0.9383210106086424</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>507</v>
@@ -8791,19 +8791,19 @@
         <v>461083</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>450596</v>
+        <v>451088</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>469262</v>
+        <v>469606</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9357464808500298</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9144653664676848</v>
+        <v>0.9154625449375945</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9523454711296817</v>
+        <v>0.953045406435863</v>
       </c>
     </row>
     <row r="27">
@@ -8895,19 +8895,19 @@
         <v>84828</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>68768</v>
+        <v>67346</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>103029</v>
+        <v>102301</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1512565054684442</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.122620093383172</v>
+        <v>0.1200841395602265</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1837095142697129</v>
+        <v>0.1824120451775419</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>247</v>
@@ -8916,19 +8916,19 @@
         <v>131567</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>115755</v>
+        <v>116038</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>147512</v>
+        <v>148040</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1666067667823012</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1465834285035847</v>
+        <v>0.1469421461275396</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1867976052128873</v>
+        <v>0.1874661648998225</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>357</v>
@@ -8937,19 +8937,19 @@
         <v>216395</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>193883</v>
+        <v>193737</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>240774</v>
+        <v>243289</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.1602322958500629</v>
+        <v>0.1602322958500628</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1435625940946736</v>
+        <v>0.1434546527711997</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1782839354945552</v>
+        <v>0.1801460764318168</v>
       </c>
     </row>
     <row r="29">
@@ -8966,19 +8966,19 @@
         <v>475996</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>457795</v>
+        <v>458523</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>492056</v>
+        <v>493478</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.848743494531556</v>
+        <v>0.8487434945315558</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8162904857302874</v>
+        <v>0.8175879548224581</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.877379906616828</v>
+        <v>0.8799158604397735</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>909</v>
@@ -8987,19 +8987,19 @@
         <v>658120</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>642175</v>
+        <v>641647</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>673932</v>
+        <v>673649</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8333932332176986</v>
+        <v>0.8333932332176989</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8132023947871128</v>
+        <v>0.8125338351001774</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8534165714964154</v>
+        <v>0.8530578538724601</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1369</v>
@@ -9008,19 +9008,19 @@
         <v>1134116</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1109737</v>
+        <v>1107222</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1156628</v>
+        <v>1156774</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8397677041499373</v>
+        <v>0.8397677041499371</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8217160645054445</v>
+        <v>0.8198539235681825</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8564374059053262</v>
+        <v>0.8565453472288002</v>
       </c>
     </row>
     <row r="30">
